--- a/Отчет Эпизотолог/01.2021 - месячный/Формулы и фокусы в ЕКСЕЛЬ.xlsx
+++ b/Отчет Эпизотолог/01.2021 - месячный/Формулы и фокусы в ЕКСЕЛЬ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LAPOUS_BOSS\Отчет Эпизотолог\01.2021 - месячный\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\L_boss\Отчет Эпизотолог\01.2021 - месячный\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED827CA9-F1BF-48A4-ADFB-25D854BF6DC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DFE3DC-9647-4F56-B81E-A5B3DC4FD975}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -768,8 +768,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -2327,8 +2327,8 @@
   </sheetPr>
   <dimension ref="B1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
